--- a/api/resources/excel/Promoter/PromoterWorkbook.xlsx
+++ b/api/resources/excel/Promoter/PromoterWorkbook.xlsx
@@ -8,7 +8,7 @@
     <sheet state="visible" name="referral_sheet" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="commission_sheet" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="link_stats_sheet" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="referral_summary_sheet" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="promoter_stats_sheet" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="member_sheet" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="75">
   <si>
     <t>purchase_table</t>
   </si>
@@ -157,6 +157,18 @@
     <t>commission_id</t>
   </si>
   <si>
+    <t>4bb62b64-8086-475f-940e-a0bd5c535ce1</t>
+  </si>
+  <si>
+    <t>b0223419-77fb-46ea-a188-a1d6d1d35df2</t>
+  </si>
+  <si>
+    <t>referral</t>
+  </si>
+  <si>
+    <t>james@mail.com</t>
+  </si>
+  <si>
     <t>commission</t>
   </si>
   <si>
@@ -193,7 +205,7 @@
     <t>purchases</t>
   </si>
   <si>
-    <t>referral_summary_table</t>
+    <t>promoter_stats_table</t>
   </si>
   <si>
     <t>program_id</t>
@@ -236,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -261,6 +273,14 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
@@ -329,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -353,6 +373,21 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,91 +1426,173 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.01</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7">
-        <v>80.4</v>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.01</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
-        <v>9180.4</v>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.01</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="7">
+        <v>80.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7">
+        <v>9180.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1504,7 +1621,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1577,7 +1694,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
@@ -1593,12 +1710,12 @@
       <c r="I4" s="8"/>
       <c r="J4" s="7"/>
       <c r="K4" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -1637,12 +1754,12 @@
         <v>15</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -1665,7 +1782,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
@@ -1686,7 +1803,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
@@ -1751,7 +1868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1801,7 +1918,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -1842,12 +1959,12 @@
         <v>15</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -1870,7 +1987,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1962,7 +2079,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2012,7 +2129,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -2051,7 +2168,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -2072,7 +2189,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2093,12 +2210,12 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -2112,16 +2229,16 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
